--- a/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
+++ b/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoangna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoangna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -64,214 +64,262 @@
     <t>Ngày chính thức</t>
   </si>
   <si>
-    <t>UNI1756</t>
+    <t>Tập đoàn Công nghệ UniCloud</t>
+  </si>
+  <si>
+    <t>Mã số</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>14/07/1996</t>
+  </si>
+  <si>
+    <t>Sunshine Center</t>
+  </si>
+  <si>
+    <t>Chứng minh thư</t>
+  </si>
+  <si>
+    <t>Ngày cấp</t>
+  </si>
+  <si>
+    <t>Nơi cấp</t>
+  </si>
+  <si>
+    <t>TP Hà Nội</t>
+  </si>
+  <si>
+    <t>Quốc tịch</t>
+  </si>
+  <si>
+    <t>Nguyên quán</t>
+  </si>
+  <si>
+    <t>Thường trú</t>
+  </si>
+  <si>
+    <t>Hôn nhân</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Tôn giáo</t>
+  </si>
+  <si>
+    <t>Sức khỏe</t>
+  </si>
+  <si>
+    <t>Chuyên viên frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyên môn </t>
+  </si>
+  <si>
+    <t>Kỹ sư phần mềm</t>
+  </si>
+  <si>
+    <t>Ngày học việc</t>
+  </si>
+  <si>
+    <t>Ngày vào tập đoàn (*)</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Số BHXH</t>
+  </si>
+  <si>
+    <t>Số BHYT</t>
+  </si>
+  <si>
+    <t>Loại bằng</t>
+  </si>
+  <si>
+    <t>Chuyên ngành</t>
+  </si>
+  <si>
+    <t>Trường đào tạo</t>
+  </si>
+  <si>
+    <t>Năm tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>0906006580</t>
+  </si>
+  <si>
+    <t>001092011750</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Mạc, Mê Linh, Hà Nội </t>
+  </si>
+  <si>
+    <t>Độc Thân</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không </t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công Nghệ Thông Tin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bưu chính viễn thông </t>
+  </si>
+  <si>
+    <t>Tiếng anh</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chấm công một lần </t>
+  </si>
+  <si>
+    <t>Mã nhân viên (*)</t>
+  </si>
+  <si>
+    <t>Tổ chức (*)</t>
+  </si>
+  <si>
+    <t>Phòng ban (*)</t>
+  </si>
+  <si>
+    <t>Tên nhân viên (*)</t>
+  </si>
+  <si>
+    <t>Số ĐT (*)</t>
+  </si>
+  <si>
+    <t>Email (*)</t>
+  </si>
+  <si>
+    <t>Cấp bậc (*)</t>
+  </si>
+  <si>
+    <t>Ngày sinh (*)</t>
+  </si>
+  <si>
+    <t>Ngày thử việc (*)</t>
+  </si>
+  <si>
+    <t>Nơi làm việc (*)</t>
+  </si>
+  <si>
+    <t>Tầng làm việc (*)</t>
+  </si>
+  <si>
+    <t>Loại giấy tờ (*)</t>
+  </si>
+  <si>
+    <t>Mã số CMT/CCCD (*)</t>
+  </si>
+  <si>
+    <t>Mã người quản lý (*)</t>
+  </si>
+  <si>
+    <t>Tên người quản lý (*)</t>
+  </si>
+  <si>
+    <t>Ca làm việc (*)</t>
+  </si>
+  <si>
+    <t>Chấm công đặc biệt (*)</t>
+  </si>
+  <si>
+    <t>Loại chấm công đặc biệt  (*)</t>
+  </si>
+  <si>
+    <t>Học vấn</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH NAM</t>
+  </si>
+  <si>
+    <t>UNI4101</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Hoàng</t>
+  </si>
+  <si>
+    <t>Nam111222@sunshinegroup.vn</t>
+  </si>
+  <si>
+    <t>Nhóm PTPM .Net</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>14/07/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhóm kiểm thứ Fintech &amp; Erp </t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HUYỀN TRANG</t>
+  </si>
+  <si>
+    <t>0981425423</t>
+  </si>
+  <si>
+    <t>test123123@gmail.com</t>
+  </si>
+  <si>
+    <t>Ban Thiết kế</t>
+  </si>
+  <si>
+    <t>Chuyên viên hành chính</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>14/07/1997</t>
+  </si>
+  <si>
+    <t>001092011751</t>
+  </si>
+  <si>
+    <t>UNI1757</t>
   </si>
   <si>
     <t>Nguyễn Gia Mạnh</t>
   </si>
   <si>
-    <t>Tập đoàn Công nghệ UniCloud</t>
-  </si>
-  <si>
-    <t>Mã số</t>
-  </si>
-  <si>
-    <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>14/07/1996</t>
-  </si>
-  <si>
-    <t>Sunshine Center</t>
-  </si>
-  <si>
-    <t>Chứng minh thư</t>
-  </si>
-  <si>
-    <t>Ngày cấp</t>
-  </si>
-  <si>
-    <t>Nơi cấp</t>
-  </si>
-  <si>
-    <t>TP Hà Nội</t>
-  </si>
-  <si>
-    <t>Quốc tịch</t>
-  </si>
-  <si>
-    <t>Nguyên quán</t>
-  </si>
-  <si>
-    <t>Thường trú</t>
-  </si>
-  <si>
-    <t>Hôn nhân</t>
-  </si>
-  <si>
-    <t>Dân tộc</t>
-  </si>
-  <si>
-    <t>Tôn giáo</t>
-  </si>
-  <si>
-    <t>Sức khỏe</t>
-  </si>
-  <si>
-    <t>Chuyên viên frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuyên môn </t>
-  </si>
-  <si>
-    <t>Kỹ sư phần mềm</t>
-  </si>
-  <si>
-    <t>Ngày học việc</t>
-  </si>
-  <si>
-    <t>Ngày vào tập đoàn (*)</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>Số BHXH</t>
-  </si>
-  <si>
-    <t>Số BHYT</t>
-  </si>
-  <si>
-    <t>Loại bằng</t>
-  </si>
-  <si>
-    <t>Chuyên ngành</t>
-  </si>
-  <si>
-    <t>Trường đào tạo</t>
-  </si>
-  <si>
-    <t>Năm tốt nghiệp</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Nam</t>
-  </si>
-  <si>
-    <t>0906006580</t>
-  </si>
-  <si>
-    <t>Nam111@sunshinegroup.vn</t>
-  </si>
-  <si>
-    <t>001092011750</t>
-  </si>
-  <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liêm Mạc, Mê Linh, Hà Nội </t>
-  </si>
-  <si>
-    <t>Độc Thân</t>
-  </si>
-  <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không </t>
-  </si>
-  <si>
-    <t>Tốt</t>
-  </si>
-  <si>
-    <t>Đại học</t>
-  </si>
-  <si>
-    <t>Khá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công Nghệ Thông Tin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bưu chính viễn thông </t>
-  </si>
-  <si>
-    <t>Tiếng anh</t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chấm công một lần </t>
-  </si>
-  <si>
-    <t>Mã nhân viên (*)</t>
-  </si>
-  <si>
-    <t>Tổ chức (*)</t>
-  </si>
-  <si>
-    <t>Phòng ban (*)</t>
-  </si>
-  <si>
-    <t>Tên nhân viên (*)</t>
-  </si>
-  <si>
-    <t>Số ĐT (*)</t>
-  </si>
-  <si>
-    <t>Email (*)</t>
-  </si>
-  <si>
-    <t>Cấp bậc (*)</t>
-  </si>
-  <si>
-    <t>Ngày sinh (*)</t>
-  </si>
-  <si>
-    <t>Ngày thử việc (*)</t>
-  </si>
-  <si>
-    <t>Nơi làm việc (*)</t>
-  </si>
-  <si>
-    <t>Tầng làm việc (*)</t>
-  </si>
-  <si>
-    <t>Loại giấy tờ (*)</t>
-  </si>
-  <si>
-    <t>Mã số CMT/CCCD (*)</t>
-  </si>
-  <si>
-    <t>Mã người quản lý (*)</t>
-  </si>
-  <si>
-    <t>Tên người quản lý (*)</t>
-  </si>
-  <si>
-    <t>Ca làm việc (*)</t>
-  </si>
-  <si>
-    <t>Chấm công đặc biệt (*)</t>
-  </si>
-  <si>
-    <t>Loại chấm công đặc biệt  (*)</t>
-  </si>
-  <si>
-    <t>Học vấn</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>Nhóm PTPM Frontend</t>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>14/07/2006</t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
   </si>
 </sst>
 </file>
@@ -880,12 +928,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,130 +1018,130 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="I2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AK2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AM2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AN2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AO2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="26" t="s">
+      <c r="AP2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="AP2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ2" s="26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1152,93 +1200,93 @@
         <v>12345667</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="16">
+        <v>99</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="16">
-        <v>10</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="T4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="AD4" s="11" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AH4" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="5">
         <v>2255235353</v>
@@ -1250,22 +1298,147 @@
         <v>112122</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AP4" s="5">
         <v>2013</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>83559</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="16">
+        <v>10</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>2255235353</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>26236360</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>112122</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
+++ b/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoangna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDE682-5533-42BF-8023-4EF43F201BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485" tabRatio="852"/>
+    <workbookView xWindow="28800" yWindow="3465" windowWidth="21600" windowHeight="11835" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hsns_import" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hsns_import!$C$3:$AE$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hsns_import!$C$3:$AD$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="AH2" authorId="0" shapeId="0">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -64,9 +65,6 @@
     <t>Ngày chính thức</t>
   </si>
   <si>
-    <t>Tập đoàn Công nghệ UniCloud</t>
-  </si>
-  <si>
     <t>Mã số</t>
   </si>
   <si>
@@ -200,9 +198,6 @@
   </si>
   <si>
     <t>Mã nhân viên (*)</t>
-  </si>
-  <si>
-    <t>Tổ chức (*)</t>
   </si>
   <si>
     <t>Phòng ban (*)</t>
@@ -325,11 +320,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,12 +375,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -519,7 +508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,36 +534,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,13 +582,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -617,10 +597,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 3" xfId="4"/>
-    <cellStyle name="Normal 3 10" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,6 +697,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,6 +749,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,269 +941,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="30.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="23" style="4" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="21" style="4" customWidth="1"/>
-    <col min="22" max="22" width="22" style="4" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="4" customWidth="1"/>
-    <col min="24" max="29" width="30.85546875" style="4" customWidth="1"/>
-    <col min="30" max="30" width="32.42578125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="29" style="1" customWidth="1"/>
-    <col min="32" max="34" width="28.140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" style="1" customWidth="1"/>
-    <col min="36" max="37" width="15.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="14.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="22.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="30.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="23" style="4" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21" style="4" customWidth="1"/>
+    <col min="21" max="21" width="22" style="4" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="4" customWidth="1"/>
+    <col min="23" max="28" width="30.85546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="29" style="1" customWidth="1"/>
+    <col min="31" max="33" width="28.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="15.85546875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="14.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
+    <row r="1" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="25"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="R2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AI2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AL2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AM2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="26" t="s">
+      <c r="AN2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="26" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="19"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
-    <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1200,102 +1208,102 @@
         <v>12345667</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="L4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="11">
+        <v>99</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="16">
-        <v>99</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="17" t="s">
+      <c r="S4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>2255235353</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>26236360</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>112122</v>
+      </c>
+      <c r="AK4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>2255235353</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>112122</v>
       </c>
       <c r="AL4" s="5" t="s">
         <v>40</v>
@@ -1306,17 +1314,14 @@
       <c r="AN4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AO4" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AP4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1326,101 +1331,103 @@
       <c r="C5" s="8">
         <v>10000000</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="P5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="T5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="16">
-        <v>10</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="17" t="s">
+      <c r="AD5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AE5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>2255235353</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>26236360</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>112122</v>
+      </c>
+      <c r="AK5" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>2255235353</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>112122</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>40</v>
@@ -1431,18 +1438,15 @@
       <c r="AN5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AP5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AE4"/>
+  <autoFilter ref="C3:AD4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
+++ b/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDE682-5533-42BF-8023-4EF43F201BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5512E4-539A-4AF6-8EDA-B41CB574DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3465" windowWidth="21600" windowHeight="11835" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="hsns_import" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hsns_import!$C$3:$AD$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hsns_import!$C$3:$AC$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Ngoại ngữ</t>
   </si>
   <si>
-    <t>0906006580</t>
-  </si>
-  <si>
     <t>001092011750</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Tên nhân viên (*)</t>
   </si>
   <si>
-    <t>Số ĐT (*)</t>
-  </si>
-  <si>
     <t>Email (*)</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>NGUYỄN THỊ HUYỀN TRANG</t>
-  </si>
-  <si>
-    <t>0981425423</t>
   </si>
   <si>
     <t>test123123@gmail.com</t>
@@ -942,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -955,33 +946,31 @@
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="30.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="23" style="4" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21" style="4" customWidth="1"/>
-    <col min="21" max="21" width="22" style="4" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="4" customWidth="1"/>
-    <col min="23" max="28" width="30.85546875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="32.42578125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="29" style="1" customWidth="1"/>
-    <col min="31" max="33" width="28.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="15.85546875" style="1" customWidth="1"/>
-    <col min="37" max="38" width="14.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="14" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="10" width="22.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="30.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23" style="4" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21" style="4" customWidth="1"/>
+    <col min="20" max="20" width="22" style="4" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="4" customWidth="1"/>
+    <col min="22" max="27" width="30.85546875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="32.42578125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="29" style="1" customWidth="1"/>
+    <col min="30" max="32" width="28.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="15.85546875" style="1" customWidth="1"/>
+    <col min="36" max="37" width="14.42578125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="14" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
@@ -992,8 +981,8 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
@@ -1010,8 +999,8 @@
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
@@ -1023,9 +1012,8 @@
       <c r="AM1" s="28"/>
       <c r="AN1" s="28"/>
       <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1033,127 +1021,124 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="AC2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AD2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AE2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AF2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AG2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="AK2" s="23" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="AL2" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN2" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="18"/>
@@ -1164,8 +1149,8 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -1182,11 +1167,11 @@
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
+      <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
       <c r="AJ3" s="21"/>
@@ -1195,9 +1180,8 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
     </row>
-    <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1208,60 +1192,60 @@
         <v>12345667</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="K4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="11">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
+      <c r="S4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>99</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>34</v>
@@ -1275,32 +1259,32 @@
       <c r="AA4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>38</v>
+      <c r="AB4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AF4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="15" t="s">
-        <v>45</v>
+      <c r="AG4" s="5">
+        <v>2255235353</v>
       </c>
       <c r="AH4" s="5">
-        <v>2255235353</v>
+        <v>26236360</v>
       </c>
       <c r="AI4" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AJ4" s="5">
         <v>112122</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="AK4" s="5" t="s">
         <v>39</v>
@@ -1311,17 +1295,14 @@
       <c r="AM4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AO4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AO4" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1332,60 +1313,60 @@
         <v>10000000</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="O5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="S5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="U5" s="12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X5" s="12" t="s">
         <v>34</v>
@@ -1399,32 +1380,32 @@
       <c r="AA5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>38</v>
+      <c r="AB5" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AF5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="15" t="s">
-        <v>45</v>
+      <c r="AG5" s="5">
+        <v>2255235353</v>
       </c>
       <c r="AH5" s="5">
-        <v>2255235353</v>
+        <v>26236360</v>
       </c>
       <c r="AI5" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AJ5" s="5">
         <v>112122</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="AK5" s="5" t="s">
         <v>39</v>
@@ -1435,18 +1416,15 @@
       <c r="AM5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AO5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AD4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C3:AC4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
+++ b/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duongpx\Desktop\dev-info\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5512E4-539A-4AF6-8EDA-B41CB574DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3465" windowWidth="21600" windowHeight="11835" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" tabRatio="852"/>
   </bookViews>
   <sheets>
     <sheet name="hsns_import" sheetId="12" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AG2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -306,12 +305,18 @@
   </si>
   <si>
     <t>14/07/2021</t>
+  </si>
+  <si>
+    <t>Ngày áp dụng</t>
+  </si>
+  <si>
+    <t>14/02/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -588,10 +593,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 3" xfId="4"/>
+    <cellStyle name="Normal 3 10" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,23 +693,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -740,23 +728,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,45 +903,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
-    <col min="5" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="30.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="22.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="30.88671875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="23" style="4" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" style="4" customWidth="1"/>
     <col min="19" max="19" width="21" style="4" customWidth="1"/>
     <col min="20" max="20" width="22" style="4" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="4" customWidth="1"/>
-    <col min="22" max="27" width="30.85546875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="32.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="4" customWidth="1"/>
+    <col min="22" max="27" width="30.88671875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="32.44140625" style="4" customWidth="1"/>
     <col min="29" max="29" width="29" style="1" customWidth="1"/>
-    <col min="30" max="32" width="28.140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" style="1" customWidth="1"/>
-    <col min="34" max="35" width="15.85546875" style="1" customWidth="1"/>
-    <col min="36" max="37" width="14.42578125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="14" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="30" max="30" width="28.109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5546875" style="1" customWidth="1"/>
+    <col min="32" max="33" width="28.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" style="1" customWidth="1"/>
+    <col min="35" max="36" width="15.88671875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="14.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.6640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
@@ -1012,8 +985,9 @@
       <c r="AM1" s="28"/>
       <c r="AN1" s="28"/>
       <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1105,40 +1079,43 @@
         <v>58</v>
       </c>
       <c r="AE2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AG2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AH2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AI2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="23" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AK2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AL2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="23" t="s">
+      <c r="AM2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="23" t="s">
+      <c r="AN2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="23" t="s">
+      <c r="AO2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="23" t="s">
+      <c r="AP2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="18"/>
@@ -1171,7 +1148,7 @@
       <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
       <c r="AJ3" s="21"/>
@@ -1180,8 +1157,9 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
     </row>
-    <row r="4" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1268,41 +1246,44 @@
       <c r="AD4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <v>2255235353</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI4" s="5">
         <v>26236360</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AJ4" s="5">
         <v>112122</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AO4" s="5">
         <v>2013</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AP4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1389,42 +1370,45 @@
       <c r="AD5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <v>2255235353</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <v>26236360</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <v>112122</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AO5" s="5">
         <v>2013</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AC4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C3:AC4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
+++ b/src/assets/tpl-import-file/file_mau_import_ho_so.xlsx
@@ -15,9 +15,9 @@
     <sheet name="hsns_import" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hsns_import!$C$3:$AC$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">hsns_import!$C$3:$AI$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0" shapeId="0">
+    <comment ref="AI2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Ngày chính thức</t>
   </si>
   <si>
-    <t>Mã số</t>
-  </si>
-  <si>
     <t>Chức vụ</t>
   </si>
   <si>
@@ -82,24 +79,9 @@
     <t>Chứng minh thư</t>
   </si>
   <si>
-    <t>Ngày cấp</t>
-  </si>
-  <si>
-    <t>Nơi cấp</t>
-  </si>
-  <si>
     <t>TP Hà Nội</t>
   </si>
   <si>
-    <t>Quốc tịch</t>
-  </si>
-  <si>
-    <t>Nguyên quán</t>
-  </si>
-  <si>
-    <t>Thường trú</t>
-  </si>
-  <si>
     <t>Hôn nhân</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t>Chuyên viên frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">Chuyên môn </t>
-  </si>
-  <si>
     <t>Kỹ sư phần mềm</t>
   </si>
   <si>
@@ -238,79 +217,73 @@
     <t>Chấm công đặc biệt (*)</t>
   </si>
   <si>
-    <t>Loại chấm công đặc biệt  (*)</t>
-  </si>
-  <si>
     <t>Học vấn</t>
   </si>
   <si>
     <t>N3</t>
   </si>
   <si>
-    <t>NGUYỄN THÀNH NAM</t>
-  </si>
-  <si>
     <t>UNI4101</t>
   </si>
   <si>
     <t>Nguyễn Anh Hoàng</t>
   </si>
   <si>
-    <t>Nam111222@sunshinegroup.vn</t>
-  </si>
-  <si>
     <t>Nhóm PTPM .Net</t>
   </si>
   <si>
     <t>14/07/2020</t>
   </si>
   <si>
-    <t>14/07/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nhóm kiểm thứ Fintech &amp; Erp </t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ HUYỀN TRANG</t>
-  </si>
-  <si>
-    <t>test123123@gmail.com</t>
-  </si>
-  <si>
-    <t>Ban Thiết kế</t>
-  </si>
-  <si>
-    <t>Chuyên viên hành chính</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>14/07/1997</t>
-  </si>
-  <si>
-    <t>001092011751</t>
-  </si>
-  <si>
-    <t>UNI1757</t>
-  </si>
-  <si>
-    <t>Nguyễn Gia Mạnh</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>14/07/2006</t>
-  </si>
-  <si>
-    <t>14/07/2021</t>
-  </si>
-  <si>
     <t>Ngày áp dụng</t>
   </si>
   <si>
-    <t>14/02/2023</t>
+    <t>Lương Học Thức</t>
+  </si>
+  <si>
+    <t>thuclg1@unicloud.com.vn</t>
+  </si>
+  <si>
+    <t>14/07/1995</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>Số điện thoại (*)</t>
+  </si>
+  <si>
+    <t>Mã số (*)</t>
+  </si>
+  <si>
+    <t>Chuyên môn (*)</t>
+  </si>
+  <si>
+    <t>098444111</t>
+  </si>
+  <si>
+    <t>Loại chấm công đặc biệt</t>
+  </si>
+  <si>
+    <t>Ngày cấp (*)</t>
+  </si>
+  <si>
+    <t>Nơi cấp (*)</t>
+  </si>
+  <si>
+    <t>Quốc tịch (*)</t>
+  </si>
+  <si>
+    <t>Nguyên quán (*)</t>
+  </si>
+  <si>
+    <t>Thường trú (*)</t>
+  </si>
+  <si>
+    <t>Công ty hưởng lương(*)</t>
+  </si>
+  <si>
+    <t>Tập đoàn UniCloud</t>
   </si>
 </sst>
 </file>
@@ -320,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,12 +348,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -393,8 +360,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +386,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,14 +488,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,9 +523,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,13 +532,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,15 +547,9 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,8 +568,67 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -904,513 +941,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="22.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="30.88671875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="23" style="4" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21" style="4" customWidth="1"/>
-    <col min="20" max="20" width="22" style="4" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" style="4" customWidth="1"/>
-    <col min="22" max="27" width="30.88671875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="32.44140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="29" style="1" customWidth="1"/>
-    <col min="30" max="30" width="28.109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5546875" style="1" customWidth="1"/>
-    <col min="32" max="33" width="28.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" style="1" customWidth="1"/>
-    <col min="35" max="36" width="15.88671875" style="1" customWidth="1"/>
-    <col min="37" max="38" width="14.44140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.44140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="14" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="26" customWidth="1"/>
+    <col min="6" max="7" width="22.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="4" customWidth="1"/>
+    <col min="13" max="18" width="30.88671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="27.5546875" style="1" customWidth="1"/>
+    <col min="20" max="22" width="30.88671875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="38.6640625" style="34" customWidth="1"/>
+    <col min="24" max="24" width="30.88671875" style="33" customWidth="1"/>
+    <col min="25" max="27" width="22.6640625" style="34" customWidth="1"/>
+    <col min="28" max="28" width="25.5546875" style="33" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" style="33" customWidth="1"/>
+    <col min="30" max="30" width="32.44140625" style="33" customWidth="1"/>
+    <col min="31" max="31" width="29" style="34" customWidth="1"/>
+    <col min="32" max="32" width="28.109375" style="36" customWidth="1"/>
+    <col min="33" max="33" width="20.5546875" style="36" customWidth="1"/>
+    <col min="34" max="35" width="28.109375" style="36" customWidth="1"/>
+    <col min="36" max="36" width="16.5546875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="40" width="14.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+    <row r="1" spans="1:44" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="27"/>
       <c r="X1" s="27"/>
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="Z2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="AC2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="AD2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="AO2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AR2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="23" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
     </row>
-    <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>83559</v>
+        <v>72292</v>
       </c>
       <c r="C4" s="8">
-        <v>12345667</v>
+        <v>121313</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="11">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="14" t="s">
+      <c r="AC4" s="32">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>2255235353</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>26236360</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>112122</v>
+      </c>
+      <c r="AM4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="AN4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="AO4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="12" t="s">
+      <c r="AP4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AQ4" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AR4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>2255235353</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>112122</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>83559</v>
-      </c>
-      <c r="C5" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>2255235353</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>26236360</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>112122</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AC4"/>
+  <autoFilter ref="C3:AI4"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="360" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>